--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.096</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.581</v>
+        <v>19.192</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.049</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.76</v>
+        <v>16.498</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.437</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.85</v>
+        <v>15.75</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>22.27258530679006</v>
+        <v>-5.906210198261451</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>30.57146928718173</v>
+        <v>18.25569435151796</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>33.55635068143736</v>
+        <v>23.24929667574015</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>20.81562798513611</v>
+        <v>-2.834049352244264</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.87409934604034</v>
+        <v>12.14139444626437</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>33.13155490389447</v>
+        <v>17.88039843403642</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>27.01905590190864</v>
+        <v>6.906456130320741</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>34.49953662292688</v>
+        <v>19.7282198688209</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>37.2122463589642</v>
+        <v>24.17115507692564</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31.44746705679735</v>
+        <v>20.71442211297424</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>40.32272034604071</v>
+        <v>27.95864689735136</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>44.0785752848947</v>
+        <v>32.15843843671338</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>27.15210361739014</v>
+        <v>1.165145587785233</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>41.26308308508462</v>
+        <v>19.78576714223367</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>46.32776630468931</v>
+        <v>26.24966284223445</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>22.83384072731265</v>
+        <v>-7.352218864135338</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>31.04885423764956</v>
+        <v>21.03802199927518</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.99607249715073</v>
+        <v>27.61601960459831</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>21.30277575689494</v>
+        <v>-9.653751777116717</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30.27081247203594</v>
+        <v>9.668164747703619</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33.48722418834176</v>
+        <v>16.81924468261288</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>27.4234320471779</v>
+        <v>3.8886502237605</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>34.82981063649663</v>
+        <v>20.17725733805152</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>23.07738923057595</v>
+        <v>-0.0754252498893706</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31.39446555053748</v>
+        <v>26.79348952591035</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>34.38180786747682</v>
+        <v>31.52182987139529</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>21.67481349771517</v>
+        <v>6.145500181975404</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>30.75309371472726</v>
+        <v>23.69386719830253</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>34.01323036466484</v>
+        <v>29.11701455934536</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>27.90802368825322</v>
+        <v>16.97484020247433</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35.40497372978872</v>
+        <v>32.0900948819602</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.11988409454503</v>
+        <v>36.24959814841229</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>32.3288130575607</v>
+        <v>35.17961914222866</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.22235855854748</v>
+        <v>43.01630893769387</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>44.98180941788397</v>
+        <v>47.16820355982564</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.00220109010257</v>
+        <v>13.58123088930647</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>42.14373596912778</v>
+        <v>35.25461252417614</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>47.21280545152804</v>
+        <v>41.34620058012896</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>23.62751942055139</v>
+        <v>1.26888191788391</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.8605420825519</v>
+        <v>32.62168978244268</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.81021089380688</v>
+        <v>38.98859955020788</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>22.15003129404342</v>
+        <v>2.747929368328766</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.13768120109583</v>
+        <v>24.8935369415708</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.35676223873054</v>
+        <v>31.77496510694284</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>28.30005340738008</v>
+        <v>17.60921386041496</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>35.72273951885582</v>
+        <v>36.40901582996923</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>23.2992537736835</v>
+        <v>-1.184267882181658</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.61345701656023</v>
+        <v>26.17265460718255</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>34.59868583208571</v>
+        <v>30.99664785787654</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>21.91066046980344</v>
+        <v>6.069885712148302</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.98579990706085</v>
+        <v>24.17711813563652</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>34.24363693625141</v>
+        <v>29.69175313830247</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.1458318897344</v>
+        <v>16.89068967587281</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>35.64020884467271</v>
+        <v>32.50447062626694</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.35319712080977</v>
+        <v>36.7500427207487</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>32.56139520867787</v>
+        <v>36.01013214392245</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>41.45156325652069</v>
+        <v>43.92722053369764</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>45.20852352525489</v>
+        <v>48.19742967622249</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.23095390404201</v>
+        <v>14.09496449164034</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>42.36752959409151</v>
+        <v>36.4335955414667</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>47.43307707738127</v>
+        <v>42.6213467652017</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>23.84637208538362</v>
+        <v>0.6196619747621881</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.07655078724621</v>
+        <v>32.489799821724</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.02413903055323</v>
+        <v>38.97074659631843</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22.3827384006348</v>
+        <v>3.293770207133925</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>31.36727935992749</v>
+        <v>26.02796324902177</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>34.58409667764205</v>
+        <v>33.01913151417518</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.53469381364712</v>
+        <v>18.1580564683122</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>35.95483263387689</v>
+        <v>37.48447472036305</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>22.69956652137148</v>
+        <v>-3.959858440437589</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>31.01940553843182</v>
+        <v>21.96384843433586</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>34.00684903055364</v>
+        <v>27.38720715262534</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>21.26645577201311</v>
+        <v>2.078539436277417</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.34778047101391</v>
+        <v>18.79250622399223</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>33.60802385033897</v>
+        <v>24.96227478109506</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>27.49706684647453</v>
+        <v>11.9025992152596</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>34.99645325496131</v>
+        <v>26.26541858405556</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>37.7114664939926</v>
+        <v>31.09112029353858</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>31.92681737989384</v>
+        <v>27.98410927456699</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>40.82408920071416</v>
+        <v>35.60651898472275</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>44.58333792102687</v>
+        <v>40.24655076604533</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>27.6073248197072</v>
+        <v>7.258614849795286</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>41.75386201620022</v>
+        <v>27.96071554521064</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>46.82304556981028</v>
+        <v>34.89704826766432</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>23.25639035838011</v>
+        <v>-3.566089115122672</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>31.49216139347945</v>
+        <v>26.77858797157106</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>34.44191119962253</v>
+        <v>33.87667240195197</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>21.74871427259868</v>
+        <v>-2.563378974545294</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>30.73939196019921</v>
+        <v>18.69278732989946</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>33.95855959401596</v>
+        <v>26.36295907604642</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>27.8962299481196</v>
+        <v>11.15298956048806</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>35.32134007962146</v>
+        <v>29.15311084250726</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>37.50806003954092</v>
+        <v>25.84578572423859</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>31.75515575891981</v>
+        <v>21.83661524140826</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>40.54512570960992</v>
+        <v>32.26847996048407</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>44.25103961011922</v>
+        <v>37.7673278319467</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>27.48146807820962</v>
+        <v>0.5995827988139517</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>41.44825912158603</v>
+        <v>24.99138492209093</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>46.4508672271359</v>
+        <v>32.79685784058039</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>31.72258997589756</v>
+        <v>-4.089282436402076</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>39.91103801508095</v>
+        <v>25.94960759951907</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>42.87072028761882</v>
+        <v>33.64718784222285</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>30.8705058510138</v>
+        <v>-5.628988547504356</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>39.80958141413167</v>
+        <v>15.67250079747733</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>43.03877443532762</v>
+        <v>24.27127677207949</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>37.25741832355164</v>
+        <v>10.85098130357713</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>44.64052450623228</v>
+        <v>28.92098236549431</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>47.32971812622436</v>
+        <v>35.72778843919563</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>41.6067836107914</v>
+        <v>34.62123261767186</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>50.38686266913495</v>
+        <v>46.02629660955411</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>54.10833600994548</v>
+        <v>52.53275068904104</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>37.3053121259106</v>
+        <v>9.995508765220283</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>51.22273788515308</v>
+        <v>36.66005724274439</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>56.24113940518656</v>
+        <v>46.03800742238555</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>38.40317925096342</v>
+        <v>41.83771911584883</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>32.62418762599346</v>
+        <v>40.31647096555456</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>41.43228205724539</v>
+        <v>51.31401711951064</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>45.1417746625269</v>
+        <v>56.77903327380696</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.31963334412837</v>
+        <v>16.95512394280012</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>42.31667165187586</v>
+        <v>44.70545065032162</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>47.3236486074326</v>
+        <v>52.18261887508601</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>32.53060767071625</v>
+        <v>7.752490215236563</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.73691056502811</v>
+        <v>40.78316636286107</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>43.69896172212202</v>
+        <v>48.16857258594801</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>31.73281655351181</v>
+        <v>10.39961545521059</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>40.69132675135467</v>
+        <v>34.5524662876765</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43.92310226891978</v>
+        <v>42.7915117849696</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>38.14957778492439</v>
+        <v>28.29583982857043</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>45.54884181127781</v>
+        <v>48.90463590656454</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>48.24015748257035</v>
+        <v>55.38889447767836</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>42.4915478664534</v>
+        <v>56.96657158886069</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>51.28955004419434</v>
+        <v>68.90014585329062</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>55.01445221252769</v>
+        <v>75.35797556440727</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>38.15932752943375</v>
+        <v>30.17203764532107</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>52.10672878075445</v>
+        <v>60.20597529178524</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>57.12935323958666</v>
+        <v>69.16804436525791</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>38.63338026959505</v>
+        <v>43.01644453966972</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>32.85368699956835</v>
+        <v>41.78628196392915</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>41.65843967768285</v>
+        <v>52.82456142673067</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>45.36548403187229</v>
+        <v>58.42956605661558</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.5453737669001</v>
+        <v>18.13662870641538</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>42.53750445268055</v>
+        <v>46.5843173929259</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>47.54101393739847</v>
+        <v>54.17887265004514</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>32.74522782701878</v>
+        <v>8.393119768500924</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>40.94867435951392</v>
+        <v>41.93815800522334</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>43.90861307813788</v>
+        <v>49.40138826889438</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.96087977225081</v>
+        <v>12.33242620597341</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>40.91626519740186</v>
+        <v>37.0686425107257</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>44.14574208508837</v>
+        <v>45.38002914408151</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>38.37945147441178</v>
+        <v>30.2519099876852</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>45.77615430807383</v>
+        <v>51.38308126419483</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>48.46554948563618</v>
+        <v>57.93861805283222</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>42.71631424616145</v>
+        <v>59.83854553355845</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>51.51093092349156</v>
+        <v>71.7948004020796</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>55.23332702015384</v>
+        <v>78.37501103953734</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>38.38040010429371</v>
+        <v>32.73873075186851</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>52.32287304627975</v>
+        <v>63.45636265288826</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>57.34197801151824</v>
+        <v>72.49941993192047</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>38.00186557104479</v>
+        <v>35.28446358530645</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.22915414430378</v>
+        <v>31.39628523452565</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>41.04095267850562</v>
+        <v>42.197327625863</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>44.75021616922083</v>
+        <v>48.23478492220968</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>27.93151893023012</v>
+        <v>9.007664602557441</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>41.93352847192217</v>
+        <v>35.71887717994105</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>46.94059025764279</v>
+        <v>44.09351524487141</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.15728234685805</v>
+        <v>3.247104869207199</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>40.36628289140832</v>
+        <v>35.27202564017626</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>43.32852819846039</v>
+        <v>43.43676352396394</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>31.32980422671392</v>
+        <v>5.250426975195449</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>40.29129033488052</v>
+        <v>28.52033716173494</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>43.52326866252644</v>
+        <v>37.5889766512915</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>37.74396603277344</v>
+        <v>22.03300087768762</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>45.14561310053746</v>
+        <v>41.84621823068546</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>47.83710977814671</v>
+        <v>49.07276998387174</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>42.09488521159739</v>
+        <v>48.21046716627625</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>50.8965516523704</v>
+        <v>59.96618821888175</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>54.62138687133061</v>
+        <v>66.9941982728041</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>37.76985167489346</v>
+        <v>22.28038859308331</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>51.72213284969261</v>
+        <v>51.28311771269674</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>56.74502413745869</v>
+        <v>61.1870665059655</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-64.92411428551782</v>
+        <v>-6.841192713771843</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-56.49866354991498</v>
+        <v>15.28464135814529</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-53.44627902142761</v>
+        <v>20.60803690606529</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-69.76765568008972</v>
+        <v>-4.939867804625596</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-60.57172899093986</v>
+        <v>8.199341980396373</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-57.24442971527623</v>
+        <v>14.29510584893614</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-65.35049600097256</v>
+        <v>4.297122880020659</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-57.75575824307438</v>
+        <v>15.50546876056534</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-54.98374896453652</v>
+        <v>20.28323196241207</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-58.64241028760782</v>
+        <v>16.85631803906771</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-49.62323134522285</v>
+        <v>23.48859661972443</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-45.7827233917187</v>
+        <v>27.93105777459845</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-60.26186818185781</v>
+        <v>-0.4934756688431037</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-45.94409477326067</v>
+        <v>16.02250486129417</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-40.77391504407889</v>
+        <v>22.87728371566692</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-63.39666940625548</v>
+        <v>-10.60410587040575</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-55.05554897875037</v>
+        <v>15.59489405080508</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-52.04045515568875</v>
+        <v>22.5642814211678</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-68.2788183382491</v>
+        <v>-13.96373291238642</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-59.17383887522479</v>
+        <v>3.384855488308368</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-55.88719651549073</v>
+        <v>10.96601050508934</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-63.9233449690548</v>
+        <v>-1.309949719537332</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-56.40310283129168</v>
+        <v>13.25457031920678</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-64.18394196447827</v>
+        <v>-0.6890537441430347</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-55.73994933346017</v>
+        <v>24.05432792403326</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-52.68496298528248</v>
+        <v>29.15982202781506</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-68.97497871364348</v>
+        <v>4.24197502948822</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>-59.75885910320945</v>
+        <v>19.8675185404367</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-56.42872691328915</v>
+        <v>25.69782952367578</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-64.52905900065053</v>
+        <v>14.56614130995923</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-56.91753399018511</v>
+        <v>27.98985674514287</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>-54.14319703140914</v>
+        <v>32.5291968861109</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>-57.82659411549771</v>
+        <v>31.40124726396041</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-48.78875429376917</v>
+        <v>38.61120449476648</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-44.94449442497051</v>
+        <v>43.02972245670216</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-59.47542216169481</v>
+        <v>12.07212368650676</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-45.12650753311974</v>
+        <v>31.5354561932651</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>-39.95170148169029</v>
+        <v>38.07362369746561</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-62.66690291514868</v>
+        <v>-1.698779280526441</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>-54.30742520300576</v>
+        <v>27.36550200133634</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>-51.28974171609484</v>
+        <v>34.17292331864116</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-67.49733458684256</v>
+        <v>-1.407999087362096</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-58.37235948839518</v>
+        <v>18.67049228428586</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-55.08289802973093</v>
+        <v>26.03467580927614</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-63.1135050455872</v>
+        <v>12.55216325273323</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-55.5766387160933</v>
+        <v>29.543428453429</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-63.90363298492224</v>
+        <v>-1.616604748750721</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-55.46253901819577</v>
+        <v>23.61575657771509</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-52.4097050014424</v>
+        <v>28.82082660025588</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-68.67826948826169</v>
+        <v>4.317747531619048</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-59.46531709638235</v>
+        <v>20.50145176513167</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-56.137523098523</v>
+        <v>26.42737456784221</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-64.22910340929178</v>
+        <v>14.64390039186311</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>-56.62017351065421</v>
+        <v>28.56522464869962</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>-53.84779211835708</v>
+        <v>33.19394271762819</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-57.5332991574394</v>
+        <v>32.37070178873876</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-48.49887136170585</v>
+        <v>39.66604331997155</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-44.6571581927804</v>
+        <v>44.20351432751886</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-59.18776973093674</v>
+        <v>12.72195508192268</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-44.84385434672355</v>
+        <v>32.84824067854346</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-39.67262436138226</v>
+        <v>39.48734798059779</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-62.39025216014669</v>
+        <v>-2.155780258309946</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-54.03364395796048</v>
+        <v>27.42691205511669</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-51.01808036816109</v>
+        <v>34.35182763711133</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-67.20443834995274</v>
+        <v>-0.7024893307669693</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-58.08259861738738</v>
+        <v>19.96377205875788</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-54.7954399826823</v>
+        <v>27.44146087014759</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-62.81740525661411</v>
+        <v>13.27339987473512</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-55.28310823467307</v>
+        <v>30.79023289894722</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-64.6504365830404</v>
+        <v>-4.622978894213809</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-56.20360189264306</v>
+        <v>19.21822033552107</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-53.14862907209677</v>
+        <v>24.98381344934345</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-69.47593718189924</v>
+        <v>0.1467775050224809</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-60.25668841705101</v>
+        <v>14.97777102543646</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-56.92657566769321</v>
+        <v>21.51778320371805</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-65.03454443490762</v>
+        <v>9.484020426691519</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-57.42051110765729</v>
+        <v>22.19163350120092</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-54.64617728541329</v>
+        <v>27.36356912320961</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-58.32095164332026</v>
+        <v>24.24044496245148</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-49.27929395664115</v>
+        <v>31.24566582496458</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-45.43538059407219</v>
+        <v>36.13438287626757</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-59.95994051204821</v>
+        <v>5.752074633330309</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-45.60590230012804</v>
+        <v>24.29222242454919</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-40.43117186843745</v>
+        <v>31.63520067408193</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-63.12567673000123</v>
+        <v>-6.577817484759773</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-54.7633715798776</v>
+        <v>21.52721615672274</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-51.74571916294181</v>
+        <v>29.02910352952007</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-67.99018365741821</v>
+        <v>-6.738244458227609</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-58.86209650456713</v>
+        <v>12.49596130978868</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-55.57267163237893</v>
+        <v>20.60992780775829</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-63.61076431594736</v>
+        <v>6.106143157604158</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-56.07140231893317</v>
+        <v>22.33874551345191</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-53.66524638485532</v>
+        <v>19.32316794596946</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-57.33702476742248</v>
+        <v>15.21656113173053</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-48.40355249829278</v>
+        <v>24.95631929971952</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-44.61231209948426</v>
+        <v>30.78263328299958</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-58.96507255992047</v>
+        <v>-3.813851209684003</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-44.79238525939935</v>
+        <v>18.30950548025907</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-39.68366798381211</v>
+        <v>26.58015770949537</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-52.50248445857687</v>
+        <v>-6.061402421740752</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-44.19019563526206</v>
+        <v>21.75649857399326</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-41.16592947079529</v>
+        <v>29.7780357630552</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-56.62586124393644</v>
+        <v>-8.485110688702406</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-47.55208689153487</v>
+        <v>10.80059214916725</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-44.25579538760158</v>
+        <v>19.73598813458474</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-51.9670127551843</v>
+        <v>7.018686358320068</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-44.47189955430206</v>
+        <v>23.32550131911233</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-41.72573180127354</v>
+        <v>30.45978817503007</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-45.41856549547357</v>
+        <v>29.27913404903971</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-36.4975975852781</v>
+        <v>39.90830543479129</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-32.69530904205399</v>
+        <v>46.66203201756235</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-47.13610795802244</v>
+        <v>6.862643339035969</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-33.01629977729193</v>
+        <v>31.19577649155585</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-27.89649209501695</v>
+        <v>40.95456018184214</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-52.83646659693616</v>
+        <v>35.41908690271744</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>-56.53279652178611</v>
+        <v>33.69000136197391</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-47.58083154486599</v>
+        <v>43.9859496116635</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-43.78585835447333</v>
+        <v>49.80191610549102</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-58.18985258178287</v>
+        <v>12.60661944654737</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-43.98633502261559</v>
+        <v>37.97403357333064</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-38.87301201821478</v>
+        <v>45.97414494506523</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-51.75655307551543</v>
+        <v>6.04713650214758</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-43.4260679363184</v>
+        <v>36.75752776099925</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-40.39928647526907</v>
+        <v>44.52040607509662</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-55.82742686631914</v>
+        <v>7.65568892967433</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-46.73384241497921</v>
+        <v>29.69716141969917</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-43.43480986687376</v>
+        <v>38.32929637335874</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-51.13970625330673</v>
+        <v>24.56804468878732</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-43.62812439544743</v>
+        <v>43.32748677241582</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>-40.87970201099147</v>
+        <v>50.18966232663445</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-44.59672743718534</v>
+        <v>51.57096421745815</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-35.65747836809018</v>
+        <v>62.71894508418662</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-31.85159799173857</v>
+        <v>69.44790611853183</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>-46.34321780617552</v>
+        <v>27.05414023290642</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-32.19286209523263</v>
+        <v>54.64051776471594</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-27.06858098816856</v>
+        <v>64.04522487584531</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-52.54486212513051</v>
+        <v>36.77206516905306</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-56.2432570665561</v>
+        <v>35.30686774818061</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-47.29466791021331</v>
+        <v>45.65129955880543</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-43.50219984612178</v>
+        <v>51.60655835667546</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-57.90586441767842</v>
+        <v>13.93193366817603</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-43.70729447675312</v>
+        <v>39.99420328078951</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>-38.59749384918189</v>
+        <v>48.11597305995069</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-51.48541722839634</v>
+        <v>6.851654655811743</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-43.1578134750665</v>
+        <v>38.07683002576918</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>-40.13317967874049</v>
+        <v>45.92214945857516</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-55.54050437311133</v>
+        <v>9.71205745732912</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-46.45007061215441</v>
+        <v>32.33560968609264</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-43.15337168712507</v>
+        <v>41.04514692955559</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-50.84972750201301</v>
+        <v>26.6613599135181</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-43.34072848882042</v>
+        <v>45.94169817261322</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-40.59425703201303</v>
+        <v>52.87912167027134</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-44.3132389855909</v>
+        <v>54.5517070692115</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-35.37741056184366</v>
+        <v>65.73069977488828</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-31.57408761393123</v>
+        <v>72.58221282549934</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-46.06517637860971</v>
+        <v>29.72610243063553</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-31.9197881041047</v>
+        <v>57.99332572457186</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-26.79907524094182</v>
+        <v>67.48449677478877</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-53.33124798261042</v>
+        <v>28.88164131375975</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-57.01912405165476</v>
+        <v>24.84680881407612</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-48.06336331638335</v>
+        <v>34.95507358793255</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-44.26876024914232</v>
+        <v>41.32477775244934</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-58.66657455506618</v>
+        <v>4.700650497517103</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-44.45796517439879</v>
+        <v>29.08344169030447</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-39.34474241885712</v>
+        <v>37.93902493350961</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-52.21592794252918</v>
+        <v>1.438404504025804</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-43.88266845567898</v>
+        <v>31.19083031710418</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-40.8558140783515</v>
+        <v>39.69330552051622</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-56.32028821121979</v>
+        <v>2.436661371939849</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-47.22364552644474</v>
+        <v>23.63922746892604</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-43.92454383933726</v>
+        <v>33.05961533020545</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-51.63704415877304</v>
+        <v>18.25809121183796</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-44.12300939934727</v>
+        <v>36.26206150762339</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-41.37451809726288</v>
+        <v>43.82868259983518</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-45.08301381424091</v>
+        <v>42.83520043168673</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>-36.14001383331507</v>
+        <v>53.81425971792732</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-32.33435263278321</v>
+        <v>61.09469589146129</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-46.8196763991314</v>
+        <v>19.15207788197525</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-32.66432246826119</v>
+        <v>45.76034178416721</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-27.53997622537673</v>
+        <v>56.06211354133671</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-34.59094283160516</v>
+        <v>-2.104006299224189</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-26.42015393027296</v>
+        <v>19.89838750433606</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-23.48981019376416</v>
+        <v>24.89922543330865</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-38.2963693528983</v>
+        <v>-0.2938383603220558</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-29.37719060902488</v>
+        <v>13.01025420574771</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-26.17977045298457</v>
+        <v>18.69570227685432</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-33.50954009931706</v>
+        <v>8.829257007623593</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>-26.14284425947208</v>
+        <v>20.17502963986171</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>-23.48003655804155</v>
+        <v>24.62127675282724</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-27.77587379711557</v>
+        <v>21.46511766009444</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-19.03297915027899</v>
+        <v>28.06819600129679</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-15.3473205429629</v>
+        <v>32.24452590410452</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-30.23518596181106</v>
+        <v>3.781640341410299</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-16.34596133450647</v>
+        <v>20.49596955711548</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-11.37506929517679</v>
+        <v>26.88224684725006</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-33.42777238200036</v>
+        <v>-5.53855632139372</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-25.33904612538068</v>
+        <v>20.38612224004741</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-22.44576929868066</v>
+        <v>27.07754478206579</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-37.18169908643203</v>
+        <v>-8.642657593720891</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-28.3510012347249</v>
+        <v>8.698382443341867</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-25.19399581429117</v>
+        <v>15.92674398005156</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-32.46193990773844</v>
+        <v>3.843944646464323</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-25.16776570878625</v>
+        <v>18.40329340047532</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-33.85717792340961</v>
+        <v>3.533072570805594</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-25.66844241469471</v>
+        <v>28.10732205440175</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>-22.73569140027504</v>
+        <v>32.88410131289278</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-37.51144506756874</v>
+        <v>8.304359742008739</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-28.57272172095594</v>
+        <v>24.05429502338233</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-25.37268129289592</v>
+        <v>29.467455724336</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-32.69660489665894</v>
+        <v>18.47160732955565</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>-25.31365909307124</v>
+        <v>31.99680591694173</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>-22.64869992745861</v>
+        <v>36.19916504454477</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-26.96905677948904</v>
+        <v>35.27339125408738</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-18.20808965881514</v>
+        <v>42.44984749766405</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>-14.51893054552218</v>
+        <v>46.59518474178776</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-29.45735934229616</v>
+        <v>15.6542130840772</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-15.53799249618611</v>
+        <v>35.26946899960191</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>-10.56281468975614</v>
+        <v>41.33349436990909</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-32.70430681210577</v>
+        <v>2.81186183227906</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>-24.59781384122091</v>
+        <v>31.55314016651236</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>-21.70214021797094</v>
+        <v>38.07406302839781</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-36.40783880513838</v>
+        <v>3.273008906328805</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-27.55778853267782</v>
+        <v>23.30124473065979</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>-24.39817470725264</v>
+        <v>30.30300919235639</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-31.66046306117221</v>
+        <v>17.0238603720292</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-24.35019782168906</v>
+        <v>33.97198174128875</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-33.60354821092766</v>
+        <v>2.466730264397981</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-25.41762747081299</v>
+        <v>27.51083798641108</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-22.48695515782561</v>
+        <v>32.38653346208879</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-37.24265968118563</v>
+        <v>8.220477335307066</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-28.30701319823947</v>
+        <v>24.5071135478961</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-25.10923486829722</v>
+        <v>30.0156701965181</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-32.42507328906507</v>
+        <v>18.38281155578165</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-25.04464884827269</v>
+        <v>32.38675816330644</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-22.38158027548899</v>
+        <v>36.67835486835244</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-26.70350748243023</v>
+        <v>36.05133623151383</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-17.94584775256305</v>
+        <v>43.30794122574525</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-14.2591434033604</v>
+        <v>47.57046041219793</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-29.1966632426369</v>
+        <v>16.1325980673692</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-15.28215318604208</v>
+        <v>36.38581438674461</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-10.31043990988714</v>
+        <v>42.55048348704783</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-32.45400775822857</v>
+        <v>2.201022393335869</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-24.35030127165147</v>
+        <v>31.44039092784552</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-21.45667404751111</v>
+        <v>38.07784979856663</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-36.14252460334777</v>
+        <v>3.797436496411514</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-27.29552027970557</v>
+        <v>24.39119822183896</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-24.13813331723706</v>
+        <v>31.50576915872575</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-31.39243868943794</v>
+        <v>17.55707192330364</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-24.08466974880126</v>
+        <v>35.01105918527239</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-34.28088981249911</v>
+        <v>-0.264159429206515</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-26.08941722806887</v>
+        <v>23.40540804699736</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-23.15658370468151</v>
+        <v>28.83906073181398</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-37.96722085361596</v>
+        <v>4.346392199604221</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-29.02548234121058</v>
+        <v>19.29444748856444</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-25.82535470095856</v>
+        <v>25.41468903686437</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-33.15614999408412</v>
+        <v>13.55102613940067</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-25.77078873103434</v>
+        <v>26.35383367950853</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>-23.10574386018924</v>
+        <v>31.18643948047951</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-27.41852859472719</v>
+        <v>28.32802475066547</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-18.65388557380624</v>
+        <v>35.29286108897324</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-14.96493886059464</v>
+        <v>39.90322100503079</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-29.89822043270708</v>
+        <v>9.551730827128777</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-15.97390654971646</v>
+        <v>28.23530236823124</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-10.9986431372527</v>
+        <v>35.09806868175687</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-33.12091173034089</v>
+        <v>-1.945760684041126</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-25.01169595305973</v>
+        <v>25.82812564520799</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-22.11595969815252</v>
+        <v>33.0431737906258</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-36.85614530345505</v>
+        <v>-1.926570041764975</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-28.00309648754047</v>
+        <v>17.24392765073632</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-24.84341533156814</v>
+        <v>24.99621335542582</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-32.112435565703</v>
+        <v>10.72862460139678</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-24.79976720089643</v>
+        <v>26.90636207171158</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-22.53888809360794</v>
+        <v>24.18969835605228</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-26.83770397328487</v>
+        <v>20.37900296821288</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-18.17824229069552</v>
+        <v>29.97726974766694</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-14.54177412855408</v>
+        <v>35.51288011638196</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-29.29463896675259</v>
+        <v>1.052577076190026</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-15.54641650310418</v>
+        <v>23.14431967782172</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-10.63662804171696</v>
+        <v>31.03939739368214</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-23.43725243356991</v>
+        <v>-2.726967737992538</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-15.37924722428009</v>
+        <v>24.77276850820652</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-12.47321239450778</v>
+        <v>32.56235393777723</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-26.47637901619669</v>
+        <v>-4.98895642724225</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-17.67913004571625</v>
+        <v>14.24151233622172</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-14.50893245953758</v>
+        <v>22.86970990226247</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-21.47039149537341</v>
+        <v>10.23652645549855</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>-14.2032220728892</v>
+        <v>26.49627045052495</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>-11.56305132519461</v>
+        <v>33.3916906012626</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-15.86352309508459</v>
+        <v>32.34304014792373</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>-7.219248152376551</v>
+        <v>42.85161074950089</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>-3.566385840718212</v>
+        <v>49.36751633666454</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-18.38703982212182</v>
+        <v>9.764126612778199</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>-4.695052075499589</v>
+        <v>34.01095210985324</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>0.2311128052252798</v>
+        <v>43.43947025169697</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>-21.71917910982825</v>
+        <v>39.5575442534909</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>-26.04232754754418</v>
+        <v>38.07080839182764</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>-17.36495818700945</v>
+        <v>48.22132508038223</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>-13.7250065739252</v>
+        <v>53.73935047978892</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-28.52789593353512</v>
+        <v>16.73211351434051</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-14.74983385460374</v>
+        <v>42.01858852588867</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>-9.835777238868985</v>
+        <v>49.63517471065404</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-22.69857982559162</v>
+        <v>8.756553414767247</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-14.62296585536797</v>
+        <v>39.09890699915664</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-11.71461159344635</v>
+        <v>46.62351810204611</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-25.68657675840261</v>
+        <v>10.44697653745318</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>-16.87015761715516</v>
+        <v>32.38883909395493</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>-13.69743368107279</v>
+        <v>40.70644596833274</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>-20.65247948056455</v>
+        <v>27.0341916151652</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-13.3693718117467</v>
+        <v>45.70711304353352</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>-10.72712440558919</v>
+        <v>52.3245867099189</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>-15.05155815309867</v>
+        <v>53.78646982903458</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-6.389580544736859</v>
+        <v>64.81134648269577</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>-2.733378494915243</v>
+        <v>71.29484180118922</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>-17.60363368658045</v>
+        <v>29.14893290377032</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-3.8820836199192</v>
+        <v>56.59827801445583</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>1.04821128257062</v>
+        <v>65.66682848727953</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-21.45551219540985</v>
+        <v>40.70227074703921</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-25.78019306502847</v>
+        <v>39.47855453466765</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-17.10609634497358</v>
+        <v>49.67250699236087</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-13.4685578724027</v>
+        <v>55.32816898742495</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-28.27053376321521</v>
+        <v>17.86699119263594</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-14.49727842043038</v>
+        <v>43.82251703723908</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>-9.586632845460286</v>
+        <v>51.55990201724632</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-22.45324728431251</v>
+        <v>9.385990922247474</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-14.38042956718459</v>
+        <v>40.22302875202077</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>-11.47415269384382</v>
+        <v>47.82970348794697</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-25.42666646963323</v>
+        <v>12.30198090520723</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-16.61330619262807</v>
+        <v>34.80381051466122</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>-13.44284310837338</v>
+        <v>43.19866209565613</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-20.38999614557454</v>
+        <v>28.91869689342536</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-13.10939628765776</v>
+        <v>48.09292256966771</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>-10.46903769551714</v>
+        <v>54.78559913566031</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-14.79491062974674</v>
+        <v>56.53908965017186</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-6.136245845942838</v>
+        <v>67.59032910735459</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-2.48251368258056</v>
+        <v>74.19414274730551</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-17.35167061225252</v>
+        <v>31.61151811715294</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-3.634943429792088</v>
+        <v>59.71623530470975</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1.291889927476362</v>
+        <v>68.87094020700268</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-22.16867968905801</v>
+        <v>33.15977486840261</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-26.48440801639229</v>
+        <v>29.42807090248664</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-17.80338459438673</v>
+        <v>39.38114310535898</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>-14.16367222714337</v>
+        <v>45.44697529109052</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-28.96157948283312</v>
+        <v>9.029818869767247</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-15.17860114361741</v>
+        <v>33.31605959952323</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-10.26448773178234</v>
+        <v>41.78540408702816</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-23.11606978657473</v>
+        <v>4.246393729729729</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-15.03778478771721</v>
+        <v>33.62406361002027</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>-12.12925789226134</v>
+        <v>41.8873569512858</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-26.13522516192974</v>
+        <v>5.33065085096387</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-17.31586041478243</v>
+        <v>26.42184530261676</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-14.14295623745275</v>
+        <v>35.52739340448927</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-21.10485762936985</v>
+        <v>20.84878992751877</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>-13.81938877325911</v>
+        <v>38.75597732488416</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>-11.17697994647325</v>
+        <v>46.07768826156998</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>-15.49391909550766</v>
+        <v>45.22254382475589</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>-6.828329532921856</v>
+        <v>56.06837286691108</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-3.17220793242511</v>
+        <v>63.09743074995662</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-18.03737133053646</v>
+        <v>21.42409094864755</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-4.310997708089886</v>
+        <v>47.88149062066897</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>0.6195304312966101</v>
+        <v>57.84368030676986</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>39.96023068730362</v>
+        <v>-2.575682614544448</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>48.43367922736364</v>
+        <v>21.64646043487223</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>51.49913403172776</v>
+        <v>27.05655845878605</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>39.19747235208601</v>
+        <v>-0.05034352864495162</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>48.44517840176696</v>
+        <v>14.87273941163927</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>51.7900540621585</v>
+        <v>21.03555805973124</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>45.98118771243183</v>
+        <v>9.884044109646531</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>53.61807756510329</v>
+        <v>22.63570058666741</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>56.40409193255859</v>
+        <v>27.45651528255473</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>50.09634514214545</v>
+        <v>24.04577257729251</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>59.16863474491804</v>
+        <v>31.45762718485264</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>63.02197887979943</v>
+        <v>35.88936267865611</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>45.18466730065945</v>
+        <v>4.706681416829863</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>59.58789227468512</v>
+        <v>23.32764849347522</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>64.78841197040971</v>
+        <v>30.26548111396813</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>40.38909439358935</v>
+        <v>-3.992556527905514</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>48.77724027030632</v>
+        <v>24.55788189517113</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>51.80395512242696</v>
+        <v>31.60915957774329</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>39.54445969778136</v>
+        <v>-6.6993990810798</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>48.70019123646907</v>
+        <v>12.68495783851901</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>52.00280577771751</v>
+        <v>20.31147178188296</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>46.2406771417125</v>
+        <v>6.95584807409946</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>53.80221032305123</v>
+        <v>23.2725626305647</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>40.80657542015724</v>
+        <v>3.953223064621028</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>49.29867729185462</v>
+        <v>30.94665272812577</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>52.36666521005384</v>
+        <v>36.10466287789016</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>40.10046486960618</v>
+        <v>9.67894858198906</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>49.36848360023339</v>
+        <v>27.24036265119492</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>52.71611770737837</v>
+        <v>33.09800955455947</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>46.91521405659898</v>
+        <v>20.74639552240367</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>54.56899183517505</v>
+        <v>35.84895895339169</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>57.35727124098373</v>
+        <v>40.39686781285671</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>51.02208680923498</v>
+        <v>39.37874639009358</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>60.1131378210404</v>
+        <v>47.40319285600592</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>63.97016772253682</v>
+        <v>51.7943907654851</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>46.07778007054908</v>
+        <v>17.94216624614587</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>60.51233484157841</v>
+        <v>39.68843696815625</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>65.7173680688721</v>
+        <v>46.2658570317606</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>41.22389140972507</v>
+        <v>5.375370019583144</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>49.63050315568434</v>
+        <v>36.95707533019224</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>52.65973973809312</v>
+        <v>43.80824054347401</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>40.43507326417922</v>
+        <v>6.515469605363478</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>49.61091718872084</v>
+        <v>28.79399006636091</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>52.91627723548572</v>
+        <v>36.15885187070456</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>47.16189518340514</v>
+        <v>21.53644811293653</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>54.74015068453766</v>
+        <v>40.42612202089841</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>41.02288510685611</v>
+        <v>2.962731249211004</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>49.51207197534636</v>
+        <v>30.46137005189534</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>52.57788926979217</v>
+        <v>35.71954727710429</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>40.33068572312953</v>
+        <v>9.742264116276619</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>49.59551978898833</v>
+        <v>27.88126234815633</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>52.9407923963829</v>
+        <v>33.83463880443419</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>47.14720415958786</v>
+        <v>20.8080573475777</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>54.79837304301888</v>
+        <v>36.42566321984604</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>57.58467823670102</v>
+        <v>41.06353907173522</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>51.24898268956353</v>
+        <v>40.36621778531654</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>60.33659481787359</v>
+        <v>48.47540048611638</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>64.19106579237416</v>
+        <v>52.98942396126446</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>46.3010527366738</v>
+        <v>18.60257455202139</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>60.73057890035076</v>
+        <v>41.03487819214729</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>65.93199656868578</v>
+        <v>47.71296019473063</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>41.43720772497231</v>
+        <v>4.84943573773057</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>49.84093380589412</v>
+        <v>36.96555903561836</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>52.86803351481564</v>
+        <v>43.93555935084964</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>40.66217303354746</v>
+        <v>7.206460273788942</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>49.83486434365288</v>
+        <v>30.09212896424379</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>53.13789971114568</v>
+        <v>37.57130997612732</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>47.39073729233621</v>
+        <v>22.23909713624878</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>54.96640986748965</v>
+        <v>41.67176842808309</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>40.43587159848039</v>
+        <v>-0.1799982748920712</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>48.93077436927842</v>
+        <v>25.84362262721439</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>51.99883542141691</v>
+        <v>31.70600027825179</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>39.69904050268373</v>
+        <v>5.358222075011842</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>48.97014341959394</v>
+        <v>22.0602969034731</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>52.31785500246196</v>
+        <v>28.67598190330152</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>46.51149327362144</v>
+        <v>15.39455065598628</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>54.16773897492942</v>
+        <v>29.72258931594409</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>56.95609670582868</v>
+        <v>34.94602631413289</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>50.62716945123691</v>
+        <v>31.85649092992986</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>59.7220067312163</v>
+        <v>39.65890902434293</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>63.5787933724317</v>
+        <v>44.55036686239504</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>45.689690249186</v>
+        <v>11.32102536626648</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>60.12931203800941</v>
+        <v>32.06963686415249</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>65.33441560425703</v>
+        <v>39.50465300067248</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>40.85991889368589</v>
+        <v>0.2685254284973695</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>49.26931736570545</v>
+        <v>30.81639164689624</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>52.29860682683243</v>
+        <v>38.41323161244208</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>40.04073050591092</v>
+        <v>0.9187151459527279</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>49.21964204303399</v>
+        <v>22.28135697838468</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>52.52505936658315</v>
+        <v>30.45201380494274</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>46.76534848994485</v>
+        <v>14.76887391039974</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>54.34605971608192</v>
+        <v>32.83551719303079</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>56.55273996849244</v>
+        <v>29.36387702248816</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>50.26057938717312</v>
+        <v>25.36747617840389</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>59.24581342300944</v>
+        <v>36.04826330296983</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>63.0480394706879</v>
+        <v>41.83531825214405</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>45.37461754592221</v>
+        <v>4.258479376925052</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>59.63117599774155</v>
+        <v>28.79471985497976</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>64.76775351269494</v>
+        <v>37.12944685454367</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>48.84853371230791</v>
+        <v>-2.138930868442351</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>57.20985834422762</v>
+        <v>27.9969270264067</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>60.25017564438464</v>
+        <v>36.25914628002886</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>48.6745902497334</v>
+        <v>-3.961378765080056</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>57.80117090983843</v>
+        <v>17.33544934978826</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>61.11804912828941</v>
+        <v>26.49759926488329</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>55.6262842004158</v>
+        <v>12.56083625287346</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>63.1644215240184</v>
+        <v>30.60125896206228</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>65.92712550513448</v>
+        <v>37.91117258942399</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>59.67554858518179</v>
+        <v>36.94174747751057</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>68.65222952576011</v>
+        <v>48.5848062964742</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>72.47083226306434</v>
+        <v>55.39946335375236</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>54.77960241765596</v>
+        <v>12.40914138681266</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>68.98642519684599</v>
+        <v>39.14370457499281</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>74.14102363065075</v>
+        <v>49.15525171270351</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>57.49293408595786</v>
+        <v>46.2858355168426</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>51.17355026524834</v>
+        <v>44.7821530532044</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>60.17737374179004</v>
+        <v>56.05075919989471</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>63.9832674088968</v>
+        <v>61.80784454499978</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>46.25535538025531</v>
+        <v>21.49986200033669</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>60.54292814781029</v>
+        <v>49.4725335634823</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>65.68399991263132</v>
+        <v>57.48755823121137</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>49.69722577009392</v>
+        <v>10.5128676563162</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>58.07685884267227</v>
+        <v>43.70591467041879</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>61.11961925088163</v>
+        <v>51.66943577264423</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>49.57980385969756</v>
+        <v>12.94272548468367</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>58.7263148589627</v>
+        <v>37.15795557352166</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>62.04585554511664</v>
+        <v>45.97101431610755</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>56.56257486190638</v>
+        <v>30.93328927352612</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>64.11728186928924</v>
+        <v>51.57113800853972</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>66.8821744833492</v>
+        <v>58.56909555811926</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>60.60380306237797</v>
+        <v>60.28629594062751</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>69.59886941105181</v>
+        <v>72.47906490880307</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>73.42099161600598</v>
+        <v>79.24899899458737</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>55.67576479054705</v>
+        <v>33.53382404139562</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>69.91332480983061</v>
+        <v>63.71161770723791</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>75.07227750981679</v>
+        <v>73.31904774794589</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>57.71724981980432</v>
+        <v>47.638954134835</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>51.3973828067894</v>
+        <v>46.41612446003677</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>60.39780377350593</v>
+        <v>57.72929062127132</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>64.20118177252311</v>
+        <v>63.63086694788185</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>46.47563482090204</v>
+        <v>22.83689658567267</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>60.75823092069565</v>
+        <v>51.52732805917375</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>65.89574305248634</v>
+        <v>59.66452950103887</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>49.90655957228137</v>
+        <v>11.30886712235626</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>58.28329414697525</v>
+        <v>45.03261715972265</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>61.32388520476655</v>
+        <v>53.07823450290697</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>49.80251565695684</v>
+        <v>15.05098990899607</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>58.94585767632475</v>
+        <v>39.86739883577518</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>62.26303794314863</v>
+        <v>48.75688196534112</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>56.78691235810683</v>
+        <v>33.07542081402708</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>64.3390220319107</v>
+        <v>54.25135375135528</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>67.10194212735149</v>
+        <v>61.32434266312623</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>60.82315927074619</v>
+        <v>63.35155651480161</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>69.81477732457532</v>
+        <v>75.57053088654477</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>73.63432523439624</v>
+        <v>82.46712755066504</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>55.89162365832716</v>
+        <v>36.2847584393906</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>70.12418561284349</v>
+        <v>67.16559121574352</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>75.27952544452205</v>
+        <v>76.85830646406394</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>57.0989042569381</v>
+        <v>39.41212393439025</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>50.78563444652441</v>
+        <v>35.50232477951707</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>59.79322207394888</v>
+        <v>46.56552831532215</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>63.59884532033706</v>
+        <v>52.91294425863452</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>45.87406486638106</v>
+        <v>13.22294782112763</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>60.16667362142751</v>
+        <v>40.12862175673501</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>65.30778645818729</v>
+        <v>49.06043527515608</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>49.3303572148926</v>
+        <v>5.69741452733701</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>57.71272600000032</v>
+        <v>37.85856492591404</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>60.75565307346354</v>
+        <v>46.614138052174</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>49.18306077760091</v>
+        <v>7.467324942483739</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>58.33258752429209</v>
+        <v>30.77282666167694</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>61.65230219717031</v>
+        <v>40.43066482107837</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>56.1635162417236</v>
+        <v>24.31528808218284</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>63.72063798435271</v>
+        <v>44.13404629986437</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>66.48568746243572</v>
+        <v>51.88682659892846</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>60.21355261233876</v>
+        <v>51.12543213414939</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>69.21234341059196</v>
+        <v>63.13139122327106</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>73.03435912000538</v>
+        <v>70.48957611736569</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>55.29243348589954</v>
+        <v>25.26868133265806</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>69.53493827758876</v>
+        <v>54.38664757822129</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>74.694114434233</v>
+        <v>64.95311674100662</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>6.405542717631207</v>
+        <v>0.4412589665839235</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>14.56366673017309</v>
+        <v>23.09845033102399</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>17.55322783466848</v>
+        <v>28.77114502468928</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>4.323657875028942</v>
+        <v>3.131299590218664</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>13.22606278043814</v>
+        <v>16.62516332295892</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>16.48497602475058</v>
+        <v>23.07920736842721</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>10.16779833724471</v>
+        <v>12.44796273502143</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>17.51905839282328</v>
+        <v>23.95096794913728</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>20.23440181836229</v>
+        <v>29.04160620461002</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>15.08377983753414</v>
+        <v>25.34377182039678</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>23.82045222900716</v>
+        <v>32.25841755552444</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>27.57956561478598</v>
+        <v>36.85852934732567</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>11.48004268060922</v>
+        <v>7.544235437572336</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>25.34377592314173</v>
+        <v>24.48634261593465</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>30.4085462561698</v>
+        <v>31.76076709951358</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>7.210108182300537</v>
+        <v>-2.470138950863145</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>15.28661173308958</v>
+        <v>24.38234208005483</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>18.23952257642649</v>
+        <v>31.6675620224486</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>5.063838391838217</v>
+        <v>-4.947606591097252</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>13.87823170702568</v>
+        <v>12.88731101718872</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>17.09715514665697</v>
+        <v>20.77739440554711</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>10.83250384940776</v>
+        <v>7.803225641426639</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>18.11169669188801</v>
+        <v>22.77297243087079</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>7.199392424053741</v>
+        <v>7.243778904407613</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>15.37556609309031</v>
+        <v>32.58981107983694</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>18.36769457531484</v>
+        <v>38.0407279087913</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>5.171604978340625</v>
+        <v>13.04862222150715</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>14.09366585544235</v>
+        <v>29.10032462921238</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>17.3553750037587</v>
+        <v>35.28130625621817</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>11.04541617242485</v>
+        <v>23.48977963325653</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>18.4130164236954</v>
+        <v>37.27112516041613</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>21.13065747160228</v>
+        <v>42.11749842326931</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>15.95420790273086</v>
+        <v>40.75590661157914</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>24.70903737542916</v>
+        <v>48.26468241986303</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.47184733369494</v>
+        <v>52.83719288771258</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>12.3196936677606</v>
+        <v>20.91610687836941</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>26.21374274770553</v>
+        <v>40.88615816797697</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>31.28307943482615</v>
+        <v>47.83543694574571</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>7.993077013846282</v>
+        <v>7.08810789460313</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>16.08745022481397</v>
+        <v>36.87974861265531</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>19.042915835227</v>
+        <v>43.99674387237356</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>5.900107269050494</v>
+        <v>8.36141813516068</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>14.73396418466632</v>
+        <v>29.00044691008461</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>17.95566916076313</v>
+        <v>36.66316297027515</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>11.69803303771231</v>
+        <v>22.45838528815389</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>18.99340710170667</v>
+        <v>39.92010169379256</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>7.431657703243452</v>
+        <v>6.408111132163931</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>15.60504364395945</v>
+        <v>32.25958983788183</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>18.5950703451923</v>
+        <v>37.80901186816232</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>5.418276879755133</v>
+        <v>13.2344279032959</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>14.33729346308525</v>
+        <v>29.8630205423735</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>17.59671962234062</v>
+        <v>36.13773374383587</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>11.29433189881376</v>
+        <v>23.68447844771514</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>18.65943870183829</v>
+        <v>37.97987349342935</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>21.37516998810847</v>
+        <v>42.91420694793311</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>16.19761666495733</v>
+        <v>41.85953665460167</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>24.94915365736857</v>
+        <v>49.45621669925688</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.70947947036721</v>
+        <v>54.14888906348145</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>12.55882525813793</v>
+        <v>21.68906103999513</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>26.44806616826951</v>
+        <v>42.3432191807253</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>31.51391165581254</v>
+        <v>49.39122160691517</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>8.222186377525063</v>
+        <v>6.715826627141706</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>16.3137998037386</v>
+        <v>37.04189465276031</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>19.26719538503956</v>
+        <v>44.27548051778234</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>6.143488199016943</v>
+        <v>9.171461703569591</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>14.9743313323989</v>
+        <v>30.4164538266364</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>18.19378795754463</v>
+        <v>38.19101077458188</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>11.94362514419898</v>
+        <v>23.29171222820014</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>19.23653046323387</v>
+        <v>41.29498864871327</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>6.805805153373143</v>
+        <v>3.166268480156845</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>14.98468536416877</v>
+        <v>27.58746349864362</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>17.97678398587497</v>
+        <v>33.71085373191942</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>4.746711479180895</v>
+        <v>8.793498088843005</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>13.67175070444368</v>
+        <v>24.02941696600022</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>16.93342389515462</v>
+        <v>30.93430237691408</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>10.61750007201961</v>
+        <v>18.2274451113626</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>17.98748497971373</v>
+        <v>31.27356242078955</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>20.70510881323361</v>
+        <v>36.76468698461638</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>15.53567283561544</v>
+        <v>33.36381180338209</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>24.29415778746059</v>
+        <v>40.66211766521231</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.0566084296205</v>
+        <v>45.71857941701291</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>11.90890829564191</v>
+        <v>14.38910320009397</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>25.80784219968688</v>
+        <v>33.41245835183202</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>30.87708111105056</v>
+        <v>41.18325497408385</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>7.606422008240749</v>
+        <v>2.077269969929233</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>15.70348845194898</v>
+        <v>30.88725362160808</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>18.65890730630819</v>
+        <v>38.7139333960295</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>5.482501497270817</v>
+        <v>2.874320566068025</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>14.31932111358501</v>
+        <v>22.64798987103442</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>17.54097364507026</v>
+        <v>31.07762664044369</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>11.27750511327734</v>
+        <v>15.83446000339624</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>18.57525237890382</v>
+        <v>32.51861554208926</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>20.79344661253867</v>
+        <v>29.11192476590576</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>15.64626172905817</v>
+        <v>24.79258608424828</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>24.29968139232161</v>
+        <v>34.91051511138571</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.01062504967111</v>
+        <v>40.87318347924489</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>12.05409119210622</v>
+        <v>5.270914783058707</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.77732754734307</v>
+        <v>27.98359111360962</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>30.78160055729853</v>
+        <v>36.61046514725589</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>16.17286073846317</v>
+        <v>0.2368875846872918</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>24.22511333491514</v>
+        <v>28.65641390773298</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>27.18810457393821</v>
+        <v>37.07010981637231</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>14.70313921372274</v>
+        <v>-1.263857784355295</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>23.49135609385723</v>
+        <v>18.45492977912379</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>26.72111571107732</v>
+        <v>27.77866375181366</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>20.73142336844766</v>
+        <v>14.30917279177932</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.98966668937388</v>
+        <v>30.97494945705528</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>30.68069395630192</v>
+        <v>38.44842868760441</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.54822085398074</v>
+        <v>37.20161214062763</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>34.1953618843441</v>
+        <v>48.22507589214123</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>37.91759369704462</v>
+        <v>55.13011812207289</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>21.91937111932408</v>
+        <v>14.26848045808264</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>35.59759295500071</v>
+        <v>39.1409523175254</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>40.61494273102299</v>
+        <v>49.34217510313518</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>21.67744219316415</v>
+        <v>46.0578958461976</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>16.50462763225182</v>
+        <v>44.15571413633263</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>25.17603998096383</v>
+        <v>54.84502697366807</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.89066086022129</v>
+        <v>60.79020721989557</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>12.88205430128863</v>
+        <v>22.52367783163201</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>26.63530318690034</v>
+        <v>48.56377588384655</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.64412104240171</v>
+        <v>56.9082010590655</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>16.96994324139968</v>
+        <v>13.02723843263894</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>25.03991387377181</v>
+        <v>44.41001353704556</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.00539004239387</v>
+        <v>52.55987562607883</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>15.55423084743794</v>
+        <v>15.65945706672685</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>24.36173627174197</v>
+        <v>38.2049342950704</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>27.59420457767656</v>
+        <v>47.21646843171655</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>21.61224342795258</v>
+        <v>32.68331292443052</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>28.88652119951882</v>
+        <v>51.8639813704757</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>31.57977677876308</v>
+        <v>59.0583539791654</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>26.42205919284733</v>
+        <v>60.41291012652176</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>35.08699477982145</v>
+        <v>71.96912141752492</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>38.81276873176725</v>
+        <v>78.84276222157459</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>22.76291808378569</v>
+        <v>35.32222878483172</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>36.47088565751787</v>
+        <v>63.52750636048121</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>41.49265650350955</v>
+        <v>73.36458863341451</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>21.91868474172936</v>
+        <v>47.53775199334257</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>16.74480052594024</v>
+        <v>45.90069122014996</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>25.41295543651221</v>
+        <v>56.6394806977992</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.12513269098947</v>
+        <v>62.72533846168413</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>13.11802706264637</v>
+        <v>23.96837784593303</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>26.86651728836846</v>
+        <v>50.72370341378185</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.87189654903948</v>
+        <v>59.18779755745769</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>17.19469242612974</v>
+        <v>13.94713622216822</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.26188969226138</v>
+        <v>45.85991906675429</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.22526800563762</v>
+        <v>54.09076382575315</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>15.79284592043537</v>
+        <v>17.85070240911747</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>24.59732042323715</v>
+        <v>40.99559794239855</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>27.82750941357997</v>
+        <v>50.08235075259394</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>21.85294838164701</v>
+        <v>34.92021443436164</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.12474235889169</v>
+        <v>54.63702678255079</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>31.81609205779799</v>
+        <v>61.90499237962703</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>26.65738936373764</v>
+        <v>63.55094001628156</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>35.31902068170432</v>
+        <v>75.13853120769441</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>39.04229962163878</v>
+        <v>82.13618413677449</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>22.99411889548138</v>
+        <v>38.14304264859349</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>36.69730511820706</v>
+        <v>67.0483690710991</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>41.71559119306333</v>
+        <v>76.96944381718312</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>21.25925615773741</v>
+        <v>39.33839105318299</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>16.09330369068269</v>
+        <v>35.08052199766209</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>24.76835097685308</v>
+        <v>45.57643088329118</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.48258982029247</v>
+        <v>52.09358656162447</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>12.47826995774106</v>
+        <v>14.41083503304429</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>26.23637418796926</v>
+        <v>39.44323348665789</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.24507060622908</v>
+        <v>48.6633058388536</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>16.58102548300099</v>
+        <v>8.2867401122855</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>24.65363997012154</v>
+        <v>38.68875073172137</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>27.61917053757243</v>
+        <v>47.59276724257756</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>15.13487756241637</v>
+        <v>10.28283106286385</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>23.9452959367129</v>
+        <v>31.96791312738374</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>27.17781456711759</v>
+        <v>41.78396863906717</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>21.18986586690264</v>
+        <v>26.19394386726589</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.46647736770923</v>
+        <v>44.60000233439884</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>31.15978595365559</v>
+        <v>52.5128404301948</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>26.00904260965023</v>
+        <v>51.44383699736437</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>34.67757285542636</v>
+        <v>62.82534848651951</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>38.40311157877251</v>
+        <v>70.26899550812891</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>22.3577076530898</v>
+        <v>27.21222445554343</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>36.07044374665267</v>
+        <v>54.41561256771288</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>41.09225372490434</v>
+        <v>65.16880559274057</v>
       </c>
     </row>
   </sheetData>
